--- a/biology/Zoologie/Alapi_à_tête_nue/Alapi_à_tête_nue.xlsx
+++ b/biology/Zoologie/Alapi_à_tête_nue/Alapi_à_tête_nue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alapi_%C3%A0_t%C3%AAte_nue</t>
+          <t>Alapi_à_tête_nue</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gymnocichla nudiceps
 L' Alapi à tête nue (Gymnocichla nudiceps) est une espèce de passereaux de la famille des Thamnophilidae (Thamnophilidés en français). C'est la seule espèce du genre Gymnocichla.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alapi_%C3%A0_t%C3%AAte_nue</t>
+          <t>Alapi_à_tête_nue</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Alapi à tête nue mesure environ 15 cm. La particularité du mâle est qu'il a la tête nue, avec quelques plumes dispersées. La couleur de la peau est bleutée[1]. Le plumage est noir, avec une tache blanche dissimulée sur le dos. La couverture secondaire et les plumes de la queue sont bordées de blanc. Le dessous des ailes est cendré. La femelle possède des plumes sur la tête, seuls les lores et le contour de l'œil sont nus. Le plumage est brun-olive. Les plumes extérieures des primaires et des secondaires ainsi que le bout des ailes de couverture sont brun. La queue est brun-noir. Le dessous est brun avec le bord des ailes crème[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Alapi à tête nue mesure environ 15 cm. La particularité du mâle est qu'il a la tête nue, avec quelques plumes dispersées. La couleur de la peau est bleutée. Le plumage est noir, avec une tache blanche dissimulée sur le dos. La couverture secondaire et les plumes de la queue sont bordées de blanc. Le dessous des ailes est cendré. La femelle possède des plumes sur la tête, seuls les lores et le contour de l'œil sont nus. Le plumage est brun-olive. Les plumes extérieures des primaires et des secondaires ainsi que le bout des ailes de couverture sont brun. La queue est brun-noir. Le dessous est brun avec le bord des ailes crème,.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alapi_%C3%A0_t%C3%AAte_nue</t>
+          <t>Alapi_à_tête_nue</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se nourrit d'insectes et d'araignées.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alapi_%C3%A0_t%C3%AAte_nue</t>
+          <t>Alapi_à_tête_nue</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce vit du sud-est du Mexique à travers toute l'Amérique centrale, jusqu'au nord-ouest de la Colombie. 
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Alapi_%C3%A0_t%C3%AAte_nue</t>
+          <t>Alapi_à_tête_nue</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,9 +623,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oiseau vit dans les forêts denses ainsi que dans les fourrés des plaines inhabitées[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau vit dans les forêts denses ainsi que dans les fourrés des plaines inhabitées.
 </t>
         </is>
       </c>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Alapi_%C3%A0_t%C3%AAte_nue</t>
+          <t>Alapi_à_tête_nue</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,9 +656,11 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nid, en forme de dôme, peut être disposé à quelques centimètres du sol dans les fourrés ou suspendu dans un arbre. Il est fait de fibres végétales et de feuilles mortes. La femelle y pond 2 œufs qui sont couvés par les deux parents. Les petits sont également nourris par les deux parents[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nid, en forme de dôme, peut être disposé à quelques centimètres du sol dans les fourrés ou suspendu dans un arbre. Il est fait de fibres végétales et de feuilles mortes. La femelle y pond 2 œufs qui sont couvés par les deux parents. Les petits sont également nourris par les deux parents.
 </t>
         </is>
       </c>
@@ -649,7 +671,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Alapi_%C3%A0_t%C3%AAte_nue</t>
+          <t>Alapi_à_tête_nue</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -667,7 +689,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international, cette espèce est constituée des quatre sous-espèces suivantes (ordre phylogénique) :
 Gymnocichla nudiceps chiroleuca P.L. Sclater &amp; Salvin, 1869 ;
